--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/营销活动.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/营销活动.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t xml:space="preserve">活动名称</t>
   </si>
@@ -32,16 +32,73 @@
     <t xml:space="preserve">发布时间</t>
   </si>
   <si>
-    <t xml:space="preserve">活动12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑俊玲</t>
+    <t xml:space="preserve">链接类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部链接</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">草稿</t>
+    <t xml:space="preserve">已发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/8 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mp.weixin.qq.com/s/msPPfDy4Bm9K2jVqv1qK8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部链接2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mp.weixin.qq.com/s/DzQ1ATihpr-j_6LsqH3DeA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部编辑2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:4200/#/admin/marketting/activity-detail/defceba4-54e5-4882-5fc7-08d5cd07b602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按时代分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试吃啥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑友宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/8 16:52:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/8 18:02:00</t>
   </si>
 </sst>
 </file>
@@ -119,24 +176,206 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/营销活动.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/营销活动.xlsx
@@ -38,67 +38,67 @@
     <t xml:space="preserve">地址</t>
   </si>
   <si>
+    <t xml:space="preserve">34534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/8 18:02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试吃啥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑友宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/8 16:52:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按时代分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/8 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
     <t xml:space="preserve">外部链接</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已发布</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/8 0:00:00</t>
+    <t xml:space="preserve">http://localhost:4200/#/admin/marketting/activity-detail/defceba4-54e5-4882-5fc7-08d5cd07b602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部编辑2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部编辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部链接2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mp.weixin.qq.com/s/DzQ1ATihpr-j_6LsqH3DeA</t>
   </si>
   <si>
     <t xml:space="preserve">https://mp.weixin.qq.com/s/msPPfDy4Bm9K2jVqv1qK8A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部链接2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mp.weixin.qq.com/s/DzQ1ATihpr-j_6LsqH3DeA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内部编辑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内部链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内部编辑2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://localhost:4200/#/admin/marketting/activity-detail/defceba4-54e5-4882-5fc7-08d5cd07b602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">按时代分类</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测</t>
-  </si>
-  <si>
-    <t xml:space="preserve">测试吃啥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑友宇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/8 16:52:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/8 18:02:00</t>
   </si>
 </sst>
 </file>
@@ -188,194 +188,194 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G4"/>
       <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5"/>
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7"/>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
